--- a/tabela_taco/en/bebidas.xlsx
+++ b/tabela_taco/en/bebidas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Desktop\siteDoni\tabela_taco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Documents\#repositories\independent_developer\nutritionist-platform\tabela_taco\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6290C08-0EA0-4FEC-8A4A-3BDE03ADC0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E70A37-7A6F-4236-BE09-5FA0DB8D451B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,73 +27,73 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
-    <t>Name </t>
-  </si>
-  <si>
-    <t>unity </t>
-  </si>
-  <si>
-    <t>lime </t>
-  </si>
-  <si>
-    <t>protein </t>
-  </si>
-  <si>
-    <t>fats </t>
-  </si>
-  <si>
-    <t>carb </t>
-  </si>
-  <si>
-    <t>Details </t>
-  </si>
-  <si>
-    <t>grams </t>
-  </si>
-  <si>
-    <t>SOURCE: Club table (UNICAMP) </t>
-  </si>
-  <si>
-    <t>Isotonic drink, assorted flavors </t>
-  </si>
-  <si>
-    <t>Coffee, infusion 10% </t>
-  </si>
-  <si>
-    <t>sugarcane brandy 1 </t>
-  </si>
-  <si>
-    <t>cane, broth </t>
-  </si>
-  <si>
-    <t>beer, pilsen 2 </t>
-  </si>
-  <si>
-    <t>Tea, fennel, infusion 5% </t>
-  </si>
-  <si>
-    <t>Tea, mate, infusion 5% </t>
-  </si>
-  <si>
-    <t>Tea, black, 5% infusion </t>
-  </si>
-  <si>
-    <t>coconut water </t>
-  </si>
-  <si>
-    <t>Soda, like tonic water </t>
-  </si>
-  <si>
-    <t>Soft drink, cola type </t>
-  </si>
-  <si>
-    <t>Soft drink, guarana type </t>
-  </si>
-  <si>
-    <t>Soft drink, orange type </t>
-  </si>
-  <si>
-    <t>Soft drink, lemon type </t>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>fats</t>
+  </si>
+  <si>
+    <t>carb</t>
+  </si>
+  <si>
+    <t>grams</t>
+  </si>
+  <si>
+    <t>SOURCE: Club table (UNICAMP)</t>
+  </si>
+  <si>
+    <t>Isotonic drink, assorted flavors</t>
+  </si>
+  <si>
+    <t>Coffee, infusion 10%</t>
+  </si>
+  <si>
+    <t>sugarcane brandy 1</t>
+  </si>
+  <si>
+    <t>cane, broth</t>
+  </si>
+  <si>
+    <t>beer, pilsen 2</t>
+  </si>
+  <si>
+    <t>Tea, fennel, infusion 5%</t>
+  </si>
+  <si>
+    <t>Tea, mate, infusion 5%</t>
+  </si>
+  <si>
+    <t>Tea, black, 5% infusion</t>
+  </si>
+  <si>
+    <t>coconut water</t>
+  </si>
+  <si>
+    <t>Soda, like tonic water</t>
+  </si>
+  <si>
+    <t>Soft drink, cola type</t>
+  </si>
+  <si>
+    <t>Soft drink, guarana type</t>
+  </si>
+  <si>
+    <t>Soft drink, orange type</t>
+  </si>
+  <si>
+    <t>Soft drink, lemon type</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>detalhes</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,33 +424,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0.25613333333333344</v>
@@ -465,15 +465,15 @@
         <v>6.40333333333334E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>9.0708685996135172E-2</v>
@@ -488,15 +488,15 @@
         <v>1.478666666666667E-2</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>2.1566160000000001</v>
@@ -511,15 +511,15 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0.65343598268985725</v>
@@ -534,15 +534,15 @@
         <v>0.1801466666666667</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0.40720188550628661</v>
@@ -557,15 +557,15 @@
         <v>3.3174999999999996E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1.3970599738756386E-2</v>
@@ -580,15 +580,15 @@
         <v>3.9133333333332132E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2.730749951124143E-2</v>
@@ -603,15 +603,15 @@
         <v>6.4299999999999314E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2.2479099579652103E-2</v>
@@ -626,15 +626,15 @@
         <v>6.2966666666666527E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0.2150859424050649</v>
@@ -649,15 +649,15 @@
         <v>5.1543333333333378E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0.30779400000000001</v>
@@ -672,15 +672,15 @@
         <v>7.95333333333334E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0.33514200000000044</v>
@@ -695,15 +695,15 @@
         <v>8.6600000000000107E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0.38700000000000001</v>
@@ -718,15 +718,15 @@
         <v>0.1</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0.45627300000000026</v>
@@ -741,15 +741,15 @@
         <v>0.11789999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0.39719100000000013</v>
@@ -764,7 +764,7 @@
         <v>0.10263333333333335</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
